--- a/biology/Zoologie/Isognathus_leachii/Isognathus_leachii.xlsx
+++ b/biology/Zoologie/Isognathus_leachii/Isognathus_leachii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isognathus leachii est  une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' envergure est d'environ 85 mm pour les mâles et 94 mm pour les femelles. Il y a des bandes indistinctes sur le dessus de l'abdomen et une tache allongé sur le dessus des ailes. Le bord intérieur de la bande marginale brun foncé de la partie supérieure de l'aile postérieure est nettement et régulièrement denté, sa largeur n'est pas constante.
 Les chenilles sont très colorées signalant par ce biais leur potentiel de toxicité aux prédateurs.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au sud du Panama, en Colombie, au Venezuela, au Brésil, en Équateur, en Bolivie et en Argentine.
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est multivoltine, avec des adultes qui volent pendant tous les mois de l'année. Les chenilles se nourrissent sur Allamanda cathartica et Allamanda blanchetii.
 </t>
@@ -609,11 +627,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Isognathus leachii a été décrite  par le naturaliste britannique William John Swainson en 1823 [1]. La localité type est le Brésil.
-Synonymie
-Sphinx leachii Swainson, 1823 protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Isognathus leachii a été décrite  par le naturaliste britannique William John Swainson en 1823 . La localité type est le Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isognathus_leachii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isognathus_leachii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx leachii Swainson, 1823 protonyme
 Isognathus metascyron Butler, 1875
 Anceryx cahuchu Boisduval, 1875 </t>
         </is>
